--- a/main/data/longest_common_prefix.xlsx
+++ b/main/data/longest_common_prefix.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.24922180175781</v>
+        <v>18.59688758850098</v>
       </c>
       <c r="D2" t="n">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.75290679931641</v>
+        <v>17.88806915283203</v>
       </c>
       <c r="D3" t="n">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.85716819763184</v>
+        <v>17.99893379211426</v>
       </c>
       <c r="D4" t="n">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.38509941101074</v>
+        <v>17.9450511932373</v>
       </c>
       <c r="D5" t="n">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.02008056640625</v>
+        <v>18.16797256469727</v>
       </c>
       <c r="D6" t="n">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/longest_common_prefix.xlsx
+++ b/main/data/longest_common_prefix.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.59688758850098</v>
+        <v>18.00179481506348</v>
       </c>
       <c r="D2" t="n">
         <v>176</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.88806915283203</v>
+        <v>17.69018173217773</v>
       </c>
       <c r="D3" t="n">
         <v>174</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.99893379211426</v>
+        <v>17.26508140563965</v>
       </c>
       <c r="D4" t="n">
         <v>176</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.9450511932373</v>
+        <v>19.06514167785645</v>
       </c>
       <c r="D5" t="n">
         <v>176</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.16797256469727</v>
+        <v>18.15986633300781</v>
       </c>
       <c r="D6" t="n">
         <v>177</v>

--- a/main/data/longest_common_prefix.xlsx
+++ b/main/data/longest_common_prefix.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.00179481506348</v>
+        <v>19.32001113891602</v>
       </c>
       <c r="D2" t="n">
         <v>176</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.69018173217773</v>
+        <v>17.85588264465332</v>
       </c>
       <c r="D3" t="n">
         <v>174</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.26508140563965</v>
+        <v>17.46892929077148</v>
       </c>
       <c r="D4" t="n">
         <v>176</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.06514167785645</v>
+        <v>17.57693290710449</v>
       </c>
       <c r="D5" t="n">
         <v>176</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.15986633300781</v>
+        <v>19.30093765258789</v>
       </c>
       <c r="D6" t="n">
         <v>177</v>
